--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009405B6-3426-478D-90C4-509C052A99B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>input</t>
   </si>
@@ -32,6 +31,154 @@
   </si>
   <si>
     <t>땅 미친듯이 흔들림 진짜 뒤질수도 있을거같음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 땅 흔들리지 않았냐?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>금오공대 지진나서 창문깨졌어.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진나서 운동장에 물 터졌어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진나서 집 벽에 균열생김</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진때문에 수능 연기됐대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트에 물건들 다 널브러져 있다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 도로에 균열생겼음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명피해 발생헀다는데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅이 흔들려</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 건물 외벽 무너졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 물건들 날아다님</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이 너무 세서 앞을 못보겠어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에서 타는냄새 나는데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산불 지금 우리집에서도 보인다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산불 엄청커졌어 지금</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정도면 사람 죽겠는데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람 한명 죽었대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들 다 대피하고 있음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 밖에 비 엄청많이와</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 못걸어 다닐정도야</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명피해가 너무 많은거 같은데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진때문에 대피하다가 다쳤다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 좀 심하게 타는데 대피해야하냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문이 깨졌어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 사람들 비명소리 들린다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명피해없기를 기원합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍오는거 아니냐?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진운 봤다 곧 지진날거 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>타는냄새 너무 심해 머리아프다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물에 균열이 심하게 생겼다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>간판들 다 파손됐다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽들 다 붕괴됐어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 흔들림 느껴짐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 지진난거 아니냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 외벽들이 다 붕괴됐어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 대피하다가 다쳤음 피가 많이나</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -984,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,6 +1166,302 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>input</t>
   </si>
@@ -27,13 +27,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>지금 땅 조금 흔들리는거같은데</t>
-  </si>
-  <si>
-    <t>땅 미친듯이 흔들림 진짜 뒤질수도 있을거같음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>방금 땅 흔들리지 않았냐?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -42,34 +35,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>금오공대 지진나서 창문깨졌어.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진나서 운동장에 물 터졌어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진나서 집 벽에 균열생김</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진때문에 수능 연기됐대</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>마트에 물건들 다 널브러져 있다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>지금 도로에 균열생겼음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인명피해 발생헀다는데</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>땅이 흔들려</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -82,58 +51,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>바람이 너무 세서 앞을 못보겠어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖에서 타는냄새 나는데</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>산불 지금 우리집에서도 보인다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>산불 엄청커졌어 지금</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정도면 사람 죽겠는데</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람 한명 죽었대</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>사람들 다 대피하고 있음</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>지금 밖에 비 엄청많이와</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖에 못걸어 다닐정도야</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인명피해가 너무 많은거 같은데</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>지진때문에 대피하다가 다쳤다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>지금 좀 심하게 타는데 대피해야하냐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>창문이 깨졌어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>밖에 사람들 비명소리 들린다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -146,14 +71,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>지진운 봤다 곧 지진날거 같다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>타는냄새 너무 심해 머리아프다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>건물에 균열이 심하게 생겼다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -162,10 +79,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>벽들 다 붕괴됐어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>방금 흔들림 느껴짐</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -174,11 +87,238 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>건물 외벽들이 다 붕괴됐어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>방금 대피하다가 다쳤음 피가 많이나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물에 벽에 금이 갔어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 교통 통제하고 있음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍때문에 밖에 비바람 몰아친다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문이 겁나 흔들려 바람 세게 부는듯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 우리집 창문 깨졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 벽 방금 무너졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 비바람 몰아쳐서 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로 바닥에 균열이 더 늘었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍때문에 산사태로 사람이 죽었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진으로 벽에 균열이 생겼다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 사람들이 갑자기 뛰어다닌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 무슨 큰소리 나지 않았어?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 나만 큰소리 들었어??</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 비 너무 많이 온다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진때문에 산사태 일어남</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도가 너무 커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도 때문에 지금 사람들 다 대피한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 우리집도 물에 잠겨있어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수때문에 도로에서 물고기 잡힌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수때문에 도로에 쓰레기들 다 나온다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진 일어났다는데 가족들 건강한지 걱정된다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 우리가족 사는데 괜찮겠지? 걱정된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수때문에 앞으로 나아가질 못하겠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내차가 홍수때문에 움직이질 못한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 땅 조금 흔들리는거 같은데</t>
+  </si>
+  <si>
+    <t>땅 미친듯이 흔들림 진짜 뒤질 수도 있을거 같음</t>
+  </si>
+  <si>
+    <t>금오공대 지진 일어나서 창문 깨졌어.</t>
+  </si>
+  <si>
+    <t>지진 일어나서 운동장에 물 터졌어</t>
+  </si>
+  <si>
+    <t>지진 일어나서 집 벽에 균열 생김</t>
+  </si>
+  <si>
+    <t>지진때문에 수능 연기됐다</t>
+  </si>
+  <si>
+    <t>지금 도로에 균열 생겼음</t>
+  </si>
+  <si>
+    <t>인명피해 발생했다는데</t>
+  </si>
+  <si>
+    <t>바람이 너무 세서 앞을 못보겠음</t>
+  </si>
+  <si>
+    <t>밖에서 타는 냄새 나는데</t>
+  </si>
+  <si>
+    <t>산불 지금 우리 집에서도 보인다.</t>
+  </si>
+  <si>
+    <t>산불 엄청 커졌어 지금</t>
+  </si>
+  <si>
+    <t>이 정도면 사람 죽겠는데</t>
+  </si>
+  <si>
+    <t>사람 한 명 죽었다</t>
+  </si>
+  <si>
+    <t>지금 밖에 비 엄청 많이 와</t>
+  </si>
+  <si>
+    <t>밖에 못 걸어 다닐 정도야</t>
+  </si>
+  <si>
+    <t>인명피해가 너무 많은 거 같은데</t>
+  </si>
+  <si>
+    <t>지금 좀 심하게 타는데 대피 해야하냐</t>
+  </si>
+  <si>
+    <t>창문이 깨졌음</t>
+  </si>
+  <si>
+    <t>지진운 봤다 곧 지진아가 같다.</t>
+  </si>
+  <si>
+    <t>타는 냄새 너무 심해 머리 아프다.</t>
+  </si>
+  <si>
+    <t>벽들 다 붕괴 됐어</t>
+  </si>
+  <si>
+    <t>건물 외벽들이 다 붕괴 됐어</t>
+  </si>
+  <si>
+    <t>사람 죽을 거 같다.</t>
+  </si>
+  <si>
+    <t>이 정도면 건물하나정돈 무너질 거 같다.</t>
+  </si>
+  <si>
+    <t>밖에서 큰소리가 나는게 같은데?</t>
+  </si>
+  <si>
+    <t>파도가 엄청 커요</t>
+  </si>
+  <si>
+    <t>땅 흔들리더니 정전됐다.</t>
+  </si>
+  <si>
+    <t>파도가 너무 많이 친다.</t>
+  </si>
+  <si>
+    <t>밖에 눈이 너무 많이 와서 나갈 수가 없다.</t>
+  </si>
+  <si>
+    <t>밖에 눈이 많이 오는데?</t>
+  </si>
+  <si>
+    <t>도로 균열 생겨서 사고 날수도 있을 듯</t>
+  </si>
+  <si>
+    <t>방금 지진 느낀 사람 엄청 쌨는데</t>
+  </si>
+  <si>
+    <t>태풍때문에 바람이 엄청 세게 부네 사람 날아갈 듯</t>
+  </si>
+  <si>
+    <t>파도 너무 센 거 같은데 해일 같아..</t>
+  </si>
+  <si>
+    <t>뉴스에 지금 지진 일어났다고 나온다.</t>
+  </si>
+  <si>
+    <t>지금 홍수 나서 도로 다 물에 잠겼음.</t>
+  </si>
+  <si>
+    <t>홍수 나서 까딱하면 사람들 쓸려 내려갈 듯</t>
+  </si>
+  <si>
+    <t>비가 너무 많이 오네 홍수 일어날듯</t>
+  </si>
+  <si>
+    <t>집에 갔는데 집 물에 잠겨있을 거 같다.</t>
+  </si>
+  <si>
+    <t>지금 지하주차장에 사람 있을텐데 물에 잠겨있다.</t>
+  </si>
+  <si>
+    <t>홍수 가 나서 물이 너무 많다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진나서 도로가 많이 붕괴 되었는데 집에 갈 수 있을까</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 붕괴 잔해때문에 앞으로 나아 갈수가 없네</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1131,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1292,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1160,7 +1300,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1168,7 +1308,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1176,7 +1316,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1184,7 +1324,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1192,7 +1332,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1200,7 +1340,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1208,7 +1348,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1216,7 +1356,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1224,7 +1364,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1232,7 +1372,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1240,7 +1380,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1248,7 +1388,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1256,7 +1396,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1264,7 +1404,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1272,7 +1412,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1280,7 +1420,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1288,7 +1428,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1296,7 +1436,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1304,7 +1444,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1312,7 +1452,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1320,7 +1460,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1328,7 +1468,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1336,7 +1476,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1344,7 +1484,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1352,7 +1492,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1360,7 +1500,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1368,7 +1508,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1376,7 +1516,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1384,7 +1524,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1392,7 +1532,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1400,7 +1540,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1408,7 +1548,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1416,7 +1556,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1424,7 +1564,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1432,7 +1572,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1440,7 +1580,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1448,7 +1588,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1456,10 +1596,370 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>3</v>
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nature\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>input</t>
   </si>
@@ -319,6 +319,66 @@
   </si>
   <si>
     <t>건물 붕괴 잔해때문에 앞으로 나아 갈수가 없네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 땅 미친듯이 흔들린다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람 한명 죽을것 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 비명소리 들었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황이 많이 위험한거 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스에 해일이 일어났다고 나왔다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명피해가 발생한거 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 너무 많이 죽었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수 가 나서 익사가 발생했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 집에 혼자있는데 걱정된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 땅이 흔들린거 같은데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈오기 시작한다 폭설일듯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진운 발견함 방금 지진날거같음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈이 너무 많이와서 땅이 얼었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨가 너무 추워서 동상에 걸렸다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅에 균열 생기기 시작한다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1271,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1962,6 +2022,126 @@
         <v>4</v>
       </c>
     </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nature\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>input</t>
   </si>
@@ -379,6 +379,106 @@
   </si>
   <si>
     <t>땅에 균열 생기기 시작한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>동시다발적으로 재난알림이 울렸다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈으로 인해 비닐하우스가 무너졌다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진으로 운동장에 균열 이 생겼다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 재난알림 울렸다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>길가는데 사람들 핸드폰에서 전부 재난알림 울렸어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 있는데 지진 일어나서 전부 대피 했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 건물들 무너진다 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 사람들 비명지르고 있다 너무 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍이 마구 불어친다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비바람때문에 창문이 쎄게 흔들린다. 많이 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들이 많이 죽어 나간다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭설 로 인해 도로가 정체 되었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭우로 인해 도시가 물에 잠겼다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭설 로 인한 사망사고가 발생했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진 으로 인한 사망사고가 발생했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍 으로 사망자가 발생했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 사람이 죽은거 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 있는데 반 친구들 전부 지진을 느꼈다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍으로 인해 건물 손상이 심각하다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명피해 상황이 점점 심각해진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 학교 난리 났어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리에 사람들 다 난리 났어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당에서 밥먹는데 지진 일어나서 사람들 난리 났어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑하고 있는데 갑자기 땅 울려서 난리 났다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 안에 있는데 건물안에 균열 생겼다</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +646,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDDDE"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -972,8 +1080,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2142,8 +2253,209 @@
         <v>2</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>input</t>
   </si>
@@ -479,13 +479,289 @@
   </si>
   <si>
     <t>건물 안에 있는데 건물안에 균열 생겼다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마.. 나 지금 건물 안에 갇혔어..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 많이 오는데 반팔 입어서 비 맞을 때마다 따갑다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태어나서 느껴본 지진 중 이번이 제일 센듯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 내가 나고 자란 집이 바다에 떠내려갔다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈이 많이 내려서 온몸이 시리다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수 때문에 신발이 다 젖었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들이랑 바다에서 놀다가 친구 한명이 떠내려갔다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리베이터에 갇힌지 3일째…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지붕이 날라갔다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족텃밭이 홍수로 인해 사라졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아싸~ 학교 쉰다!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 우리는 IMF 보다 더 심각한 재난에 휩싸였다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍이 부는데 왜 나는 날라가지 않을까?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영 배우길 잘했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 눈사람은 다 만들었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양치하다가 이게 웬 날벼락이야</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수건을 머리 위에 덮어쓰자마자 돌이 떨어졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 맞기 싫은 비는 처음이야.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집으로 가는 길에 우산이 다 찢어졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 돌 맞아썽 너무 아파</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>택시가 안 잡힌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제까지 구호소에서 살아야하나..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비야 좀 그만 내려라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 산 운동화를 신을 수가 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 내리고 음악이 흐르면 난 당신을 생각해요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>썰매장 갈 필요가 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터파크 갈 필요가 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우… 아 아니 메우!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍의 언덕이 따로없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수와 해일 덕분에 우리집 수돗세가 많이 줄었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 집 주위 모든 건물이 다 무너졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 엑시트네.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 해운대네.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교장이 집에 안 보내준다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원에서 알바하는데 환자 개많다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관에서 손님들 내보내느라 진땀흘렸다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리나라 언제 일본 된거야?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니세프 도와주세요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿네이버스 도와주세요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 집도 안전하지 않다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수능 치기 3일전에 지진이 왜 나 미친</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라마는 정주행 끝났는데 왜 폭풍은 안 끝나냐고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트에 재고가 다 떨어졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 편돌이인데 집 어떻게 감?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 회사에서 짤렸다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조요청을 해도 구급대원이 오지 않는다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 타일이 다 갈라졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장 정리 하자마자 지진 일어나서 다 떨어졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진 나서 칫솔을 대고만 있어도 양치가 된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 비 낭만있다고 했어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진희도 놀라겠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비도 놀라겠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호날두도 놀라겠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사에서 나오지 말래요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 치다가 나옴 개꿀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖으로 나가고 싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에만 쳐박혀 있어야 겠당</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>올라프 100마리 만들어야지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와 눈 온다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이 다른 분들 괜찮으신가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구는 어때요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울은 어때요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>살아 있는 사람 따봉 누르고 가라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도는 생존했습니다 님들</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤 다 떨어짐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스타드 먹고싶은데 밖에 못나가 미친</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕 배달 되나요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비바람이 치던 바다 ~ 잔잔해져 오면 ~ </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마포대교는 무너졌냐?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1442,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2453,6 +2729,558 @@
         <v>2</v>
       </c>
     </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1220ECE8-ABD7-4DFC-983A-F817EE0F7A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>input</t>
   </si>
@@ -755,13 +756,17 @@
   </si>
   <si>
     <t>마포대교는 무너졌냐?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS Bring me here</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1717,11 +1722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3281,6 +3286,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeongmin\Desktop\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1220ECE8-ABD7-4DFC-983A-F817EE0F7A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>input</t>
   </si>
@@ -760,13 +759,45 @@
   </si>
   <si>
     <t>BTS Bring me here</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산에 눈오는데 오늘 야구하냐?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 우리 지훈이 무대하다가 넘어졌는데 괜찮니ㅜㅜ 폭설때문에 구급차도 늦게오고ㅠㅠ 에셈 망해라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필리핀에 홍수나서 우리 이모 실종됐데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항에 지진 5.8일어났는데 다들 괜찮니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금전에 롯데백화점 무너짐 미친;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마전 홍수로 나는 자연인이다 출연자분 돌아가셨데요;;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다의 물고기를 다 쓸어가니 바다가 노해서 해일이 일어나지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 호우로 인해서 배수구가 꽉막혔다</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1722,11 +1753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3294,6 +3325,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeongmin\Desktop\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nature\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>input</t>
   </si>
@@ -791,6 +791,262 @@
   </si>
   <si>
     <t>어제 호우로 인해서 배수구가 꽉막혔다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항에 있는데 방금 지진 크게 일어남ㄷㄷ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진때문에 짜장면 지혼자 섞임</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수때문에 그런가 도로에서 낚시도 할 수 있네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존자 있나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정마라 형이 지진 다 막아준다 집에서 메이플이나 하고 있어라</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 치킨 배달 되나요? 태풍이긴 한데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 호우주의보 보다는 메우주의보를 쓰는게 어떨가요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 살아있는사람 좋아요 눌러줘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 우리집 비새기 시작했다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 재난대피문자 오자마자 진동 시작했다 너무 무서워</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 포항에 지진났다고 문자 왔는데 다들 괜찮으세요??</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명피해가 없길바랍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주지진 피해 없기를 기원합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람들 다 멘탈 나간듯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 지금 사람쓰러졌다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람에 물건 날아다니는데 좀 위험해보인다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 하늘에 구멍뚫린듯 비가 너무 많이와</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이랑 비가 같이오네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집 벽 다 갈라지네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 솔직히 지진 너무심해</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수능 연기 뒤질래 진짜로?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수능까지 연기될수가 있나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행기도 못뚫는 수능을 지진이 뚫어버리네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항 지진 2차피해 없길 기원합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진피해 빠른복구를 기원합니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진때문에 공부에 집중이 안돼네 아 ㅋㅋ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍피해로 올해 농사는 다 망했습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자고 일어났더니 태풍때문에 창문 깨져있네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만 태풍 온줄 몰랐나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부는 대책이 있는걸까</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피하다 휴대폰 액정 깨졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 서울도 진동느꼈나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아 놀러나가고 싶은데 태풍때문에 나가질 못하네 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내이름은 강태풍 누나이름은 강홍수 형 이름은 강지진</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울쪽에 진동 느꼈다 본인 수도권산다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여진 있을수도 있으니 다들 조심하세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 지진 났는데 승급전때문에 대피 못했다..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 구호소 가는중입니다. 저희쪽은 건물이 거의다 붕괴 됐어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 다친 사람들이 좀 많아서 도움이 필요할것 같아요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망자 발생 했다네요 추가 피해 없길 바랍니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수피해액이 거의 5억에 달한다네요 더 큰 피해 없길 바랍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 농가들이 태풍으로 피해를 많이보네요 이번 태풍도 큰 피해를 입히고 있습니다..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은 사람들이 구호소로 대피중이에요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수 그냥 수건으로 닦으면 되지않나 아 ㅋㅋ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제쯤 집으로 갈 수 있을까요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외여행 취소됐네요 태풍 많이 심각한가 봅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍때문에 제주도에 같혀있어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 지진 역대급 지진임;;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진 발생한 쪽에 원자력 발전소 있다는데 큰 피해 없겠지..?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진원지 근처에 원전이 있다네요 아무일 없기를 기원합니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 지진때문에 정전이 일어난거 같아요 불이 안켜집니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 회사인데 지진 일어나자 마자 저장했네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분들 다들 괜찮으신가요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 어머니가 그쪽에 사십니다..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진희 일어났다!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진희갤 정독 들어갑니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정도면 수면마취하다가 깬다 진짜로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상이 뒤집힌거 같아요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대피하는데 너무 복잡하네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진때문에 그런지 너무 어지럽다;;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 도로도 다 총제하고 있어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공기 전부 결항이네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 여행 왔는데 돌아가질 못하고 있습니다,.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제쯤 한국으로 돌아갈까요..</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1754,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3389,6 +3645,518 @@
         <v>3</v>
       </c>
     </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nature\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>input</t>
   </si>
@@ -1048,12 +1048,117 @@
   <si>
     <t>언제쯤 한국으로 돌아갈까요..</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 꿈이었으면 좋겠다..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 시민으로서 지진 제일 걱정되는 건 땅이 갈라져서 거기서 새로운 유물이 나오는 거임.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 회사인데 지진나자마자ㅋㅋㅋㅋㅋ 헐 지진이다 ㅇㅁㅇ..!! 이러구있는데 이사님: 다 저장해!! 저장해!!! 얼른!!!!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 지금 지진 땜에 기와 떨어지고 난리남 ㅎㄷㄷ 여진 땜에 혹시나 싶어 피신 중</t>
+  </si>
+  <si>
+    <t>지진나자마자 강아지랑 아이컨택함;; 7년 같이 살면서 이러케 날 간절히보는거 첨 봄..</t>
+  </si>
+  <si>
+    <t>긴급재난문자 안 오는 게 제일 어이가 없다. 여지껏 '긴급'하지도 않고 '재난'도 아닐 땐 폰을 쩌렁쩌렁 울리더니..</t>
+  </si>
+  <si>
+    <t>지진 나면 먼저 해야할일 ★★가스밸브 잠그기★★ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">고리 원전 근처에 살고 있다. </t>
+  </si>
+  <si>
+    <t>방금 샤워를 하던 도중 극한의 공포를 느꼈다. 집이 이대로 주저 앉을듯한 진동이었다.</t>
+  </si>
+  <si>
+    <t>또 지진와서 화분 깨졌다</t>
+  </si>
+  <si>
+    <t>우리나라도 지진 대피교육 같은거 일본처럼 일년에 두세번 의무적으로 교육할 수 있게 해라 제발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혹시나 해서 긴 옷, 생수 몇 병 챙겨  놓고 가스 잠가둠. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 아파트는 어떻게 피해야 하는지 모르겠다..</t>
+  </si>
+  <si>
+    <t>우리 동네도 원전있고 고준위 폐기물 쌓아둔 곳인데 어떻게 대처하라는 이야기 한마디 없다.</t>
+  </si>
+  <si>
+    <t>나 지금 긱사 무너졋다고!!!!</t>
+  </si>
+  <si>
+    <t>지나다니는 길이 이렇게 됬다고 건물 떨어져서.... </t>
+  </si>
+  <si>
+    <t>지진 났는데 앉아서 공부해.라니...</t>
+  </si>
+  <si>
+    <t>천장에 선풍기 흔들리고 겁에 질려있는 애들한테 공부하라고 침착하게 앉아있으라고.. 난 학교에서 생을 마감하라는줄 알았네 너무해 ...</t>
+  </si>
+  <si>
+    <t>아니 폭염이라고 문자는 잘도 보내주드만 정작 이렇게 위험할때는 문자도 안보내줌?</t>
+  </si>
+  <si>
+    <t>밤12시 넘어서 속보내보내는 지상파 뉴스 이게 무슨 속보냐</t>
+  </si>
+  <si>
+    <t>닭튀기다 기름튀기면 재난문자 보낼 기세네.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리나라 안전의식은 각자훈련해야합니다. </t>
+  </si>
+  <si>
+    <t>지진보다 무서운건 정부</t>
+  </si>
+  <si>
+    <t>대한민국은 후진국임을 자연이 스스로 보여줌</t>
+  </si>
+  <si>
+    <t>서울도 흔들렸어요...</t>
+  </si>
+  <si>
+    <t>인천에서 12층사는 나도 앉아있던 의자가흔들렸는데..</t>
+  </si>
+  <si>
+    <t>노답이네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 지진나면 바로 공터로 나가야 합니다</t>
+  </si>
+  <si>
+    <t>재난대피문자 오지도않음ㅡㅡ</t>
+  </si>
+  <si>
+    <t>난 태연하게 밥 먹었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기왓장 좀 떨어지고 유리몇장 깨진 정도의 지진이었는데,, 세상에 이런 지진이 또 어디있나! </t>
+  </si>
+  <si>
+    <t>경상도 남쪽 고층 아파트 사는 사람들은 낙하산이라도 하나씩 준비해 두어야 겠구만.</t>
+  </si>
+  <si>
+    <t>곧 죽어도 인터넷은 안할수없지</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2010,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4157,6 +4262,270 @@
         <v>2</v>
       </c>
     </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>input</t>
   </si>
@@ -1153,13 +1153,749 @@
   </si>
   <si>
     <t>곧 죽어도 인터넷은 안할수없지</t>
+  </si>
+  <si>
+    <t>우리나라 안전 불감증은 문제다.</t>
+  </si>
+  <si>
+    <t>시청 근무자는 태풍이기 때문에 휴일에 출근하지 않을 수 없었겠지요.</t>
+  </si>
+  <si>
+    <t>나도 태풍에도 출근하지 않을 수 없는 직종이라서, 어제 퇴근하는 게 무서웠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국의 피해상황을 보고 있으면, 유감스럽게도 더 늘어날 것 같네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 피난 권고가 나와 처음으로 피난했습니다만, 부족한 것도 많아 재차 깨닫게 되는 점이 많았습니다.</t>
+  </si>
+  <si>
+    <t>이번 일을 교훈으로 와주길 바라진 않지만 다음을 대비하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>노인은 왜 태풍이 오면 바깥 모습을 보고 싶어 하는 걸까.</t>
+  </si>
+  <si>
+    <t>산사태, 차로 피해서 떠내려가는 등...정말로 마음이 아픕니다. 무서운 태풍이었어요...</t>
+  </si>
+  <si>
+    <t>바깥 모습을 보러 갔다 오겠다고 집을 나간 고령 남성이 돌아가셨다고 뉴스에서 봤습니다.</t>
+  </si>
+  <si>
+    <t>아직 파악되지 않은 것도 많이 있다고 생각해.</t>
+  </si>
+  <si>
+    <t>헬기로 인명 구조를 하는 장면이 보도되고 있어요.</t>
+  </si>
+  <si>
+    <t>보도헬기를 띄우는 것은 삼가줄 수 없을까.</t>
+  </si>
+  <si>
+    <t>재해 상황의 보도는 필요하다고 생각하지만, 방해만은 하지 않았으면 한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피난 권고가 나온다면 직원의 안전을 위해서 편의점이라도 문을 닫아야 한다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>뉴스에서 한 분은 퇴근길에 돌아가셨다고 보도하고 있었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어쩔 수 없는 사정이 없는데 피난 지시가 내려져도 피난하지 않는다, </t>
+  </si>
+  <si>
+    <t>이렇게 위험을 주지하고 있어도 "바깥 모습을 보러 간다"고 말하고 외출했다가 숨지는 사람은 있구나.</t>
+  </si>
+  <si>
+    <t>한국인이 아무리 성실하다고 해도 상황을 보고 신문이나 우유 배달은 하지 맙시다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국 어디를 가든지 비, 산간 지역과 하천 근처의 사람은 빠른 판단으로 피난하는 것이 좋다고 생각한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대참사가 될 것 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대자연의 힘은 위대하다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 피해자가 나오지 않기를 간절히 바랍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 피난해 주었으면 합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해는 예상보다 광범위.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 부산… 나무가 장난이 아니게 흔들리네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주, 대전 주민들은 고지대로 피신 중… 다들 별일 없기를..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구는 재난영화 분위기가 물씬 풍기네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼의 물은 다 동이 났고, 은행 등 각종 기관들은 영업을 중단하거나 단축 영업을 실시하고 있습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개와 비가 쏟아지기 시작, 지금은 밤 10시 56분.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도시티에 점점 바람이 세게 불어오기 시작합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 아침에 가장 심할 거라고 집밖으로 나오지 말라는데요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어뜩해요 지금 울산인데 비 쏟아지고 바람 쩔게 불고 난리도 아니에요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 집 있는 대구타운이 젤 심각 하대요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문을 잠시 열었다가 어푸어푸 하고 도로 닫았다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주는 정전에 폭풍에 길은 잠기고 나무들은 부러지고 난리…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 아침에 허리케인이 우리 동네 지나간다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비바람이 문제가 아니고, 정전으로 전기장판이 없어 등이 시린 게 문제다…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 비가 살수차로 뿌리는 것 처럼 내리는데.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>간판 떨어져서 주차장에 차 박아라!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>점점 비와 바람소리가 심해지고 있어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>티비에서는 모든 채널이 하루 종일 태풍 뉴스뿐이네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대중교통이 오후 9시에 중단됐어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호텔 경비원은 창문이 부숴질 수도 있으니 창문의 커튼을 치랍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 집에서 동쪽으로 4시간 거리로 피난 와 있음.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기저기서 사이렌 소리만 요란.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 갇혀있다. 개강이 미뤄졌다!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 현재 비상! 재난영화 찍는 느낌이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼에 사람들이 물 산다고 줄 서는거 처음이다…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘밤 잘 버텨내야 하는데… 대구 힘내라!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 동네는 가게들은 열지도 않고 작은 슈퍼만 열었는데 물건이 남지 않았다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스를 보니 정확히 우리집을 지나간다고 한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>불이 꺼진 이 도시가 참으로 바람으로 고요해진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 추워 집 나가자마자 비명 지를 뻔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 추워서 콧물로 얼음… 어이 없어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨 크게 들이마시고 콧속 수증기 얼어서 살얼음 낌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 인간은 겨울잠을 자지 않지? 너무 추워서 동면할 것 같음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 학교는 산에 있어서 더 추운데.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1도 이하에선 롱패딩도 추워 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 진짜 완전 추워서 트위터도 못할 것 같아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 살다살다 이런 폭설은 처음 봅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈 이만큼 쌓이는 게 몇 년 만이지?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸을 수 없을 정도로 눈이 쌓였다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산에도 많은 눈이 내렸네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산에는 눈 내리는 자체가 기적이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서면지하철역에는 하도 사람이 밀려서 3~4번씩 차를 기다려야 탈 수 있을 정도라네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈 덮힌 출근길!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산에서 보기 드문 광경입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 무사히 출근하셨나요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부지방에 폭설이라는데 눈에 익숙치 않은 지역이라 괜찮으신지 걱정되네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여태 대구살면서 이만큼 눈 온거 처음 본다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주에서 20년 살면서 수해를 처음 겪었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주는 그동안 메마른 내륙이었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주 원래 물난리 잘 나는 도시입니까?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>군부대라도 동원해서 신속히 조치해야 하는 거 아닌가요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>향후 중고차 시장이 도배되겠군.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수는 개뿔.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 떠들어도 개울 건널 사람은 건너고 한강에 주차할 사람은 주차하고 물놀이 갈 사람은 간다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방 아저씨들만 안타까운 일 하시고…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날 좋다고 덥다고 산에 캠핑 간다고 계곡 간다고…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 대비하면 피해를 많이 줄일 수 있죠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인회사에서 일하는 친구가 지진 느껴지자마자 컨트롤 에스부터 눌렀데</t>
+  </si>
+  <si>
+    <t>야 넌 어떻게 된게 고양이란 애가 지진도 못느끼고 거기서 퍼질러져잇냐</t>
+  </si>
+  <si>
+    <t>근데 내일 수능 보는 분들 학교에서 지진나면 진짜 어떡할까싶은데 그냥 그대로 수능진행하게 할것같은 현실적인 미래만 보임</t>
+  </si>
+  <si>
+    <t>금오공대 지진나서 창문깨졌어. 대박</t>
+  </si>
+  <si>
+    <t>포항지진 도로파열</t>
+  </si>
+  <si>
+    <t>지진나서 운동장에 물 터졌어.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개웃겨 수업에서 지진 얘기 하고 있는데 지진 문자 왔어.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누워있다가 '오 침대 좋은데? 내 비트에 맞춰 움직이다니' 했는데 알고보니 지진이라서 좀 놀랐다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재난문자가 지진보다 먼저온건 오랜만이야.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가철에 웬 날벼락.</t>
+  </si>
+  <si>
+    <t>태풍 나크리 경로 그나마 다행이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCT 정우 눈길에서 미끄러졌대.. 걱정된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>님들 길 걸어갈 때 핸드폰 보지마셈.. 넘어짐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 장마로 우리집 절반이 파손됐었다</t>
+  </si>
+  <si>
+    <t>정말 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍이 강력해서 집에 남아 있을 수 없었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍도 한국이 싫은가봐…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비 언제 그치냐!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장마,비구름이랑 합쳐진다면 비폭탄을 맞을 것 같습니다.</t>
+  </si>
+  <si>
+    <t>와야 오는거고,피해 당해봐야 아는겁니다..</t>
+  </si>
+  <si>
+    <t>우리나라는 조용히 지나가라…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산 대부도에 상륙한 태풍 링링이 우리 집을 강타했다</t>
+  </si>
+  <si>
+    <t>앞서 고양이를 집 안으로 대피시켰기에 망정이지 큰일이 날 뻔했다</t>
+  </si>
+  <si>
+    <t>사람과 고양이 모두 다치지 않은 것에 감사할 따름이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 저녁 9시…갈수록 거세지는 파도 무섭게 몰아치네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직까지 바람이 장난이 아닙니다. </t>
+  </si>
+  <si>
+    <t>밖에 나가기 무서운 아침입니다.</t>
+  </si>
+  <si>
+    <t>이렇게 천천히 움직이는 태풍은 처음이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저렇게 큰 무지개는 생전에 처음 본다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰지 않고 걸어가는 태풍.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스를 통해 본 제주의 마을이다 지역의 모습은 처참했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍이 가면 갈수록 속도는 늦어지고 힘은 더 세진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을을 제이하고 대부분의 마을들이 정전과 단수를 겪었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을을 최소 지역으로 기준 잡아도 될 정도이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닷가나 산간지역 등은 몇배수의 고통을 겪고 있을 것이라고 생각한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무가 정말 많이 흔들린다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 순간 많이 왔다가 그쳤다가를 반복한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>허리를 펴고 걸을 순 있지만, 순간 바람이 세차게 불 때는 움추려든다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분히 위협적이고 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전이나 단수는 아직 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>육지분들, 정말 준비 단단히 하셔야 합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 이대로 육지를 관통한다면, 정말 재앙 수준일 것이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가를 내서라도 집에 대피해 있어야겠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 강하다. 이번 태풍은.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍아 잠좀 자자.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 부산은 아비규환이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전만큼 중요한 게 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 무사히 지나가길…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 동네는 거의 초토화 됐어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근하는 길도 목숨 내놓고 했어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 나무가 차 앞으로 쓰러졌어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장이 나대고 닭살과 소름이 돋았지만 출근 했네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로엔 나뭇가지들도 날아다니고 통행이 어렵습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서워… 잠도 제대로 못 잤다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날아갈까봐 무서워…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 태풍이라도 아니 무엇이라도 좋기때문에 이 더위를 날려보낼 무엇이 오기를 원한다. 너무 더워</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금 태풍을 상대할 여유가 없다. </t>
+  </si>
+  <si>
+    <t>태풍은 꺼져, 소나기는 환영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다음에, 다음에도 오지마라. 제발~ </t>
+  </si>
+  <si>
+    <t>지진도, 비도, 강풍도 무서워요</t>
+  </si>
+  <si>
+    <t>태풍의 에너지를 무언가 다른 곳에 사용할 수 있었으면 한다</t>
+  </si>
+  <si>
+    <t>얼마나 많은 비가 내릴까요? 큰 재해가 없었으면 합니다.</t>
+  </si>
+  <si>
+    <t>지금 현재도 지진과 폭우로 인한 복구작업 중인데 태풍까지 다시 온다면 정말 큰일입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">올해 여름은 기록 경신의 여름이구나. 폭염도 태풍도 지진도..무섭다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">올해 장마가 빨리 끝났다고 생각하면 오산일까? </t>
+  </si>
+  <si>
+    <t>태풍도 무섭지만 지금 더운 것이 더 무섭다</t>
+  </si>
+  <si>
+    <t>소나기만 뿌리고 가 이 더위가 물러갔으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>올해는 이것까지 하면 벌써 세번째 태풍인가? 역시 이상기후 탓이겠죠?</t>
+  </si>
+  <si>
+    <t>아직 태풍이 보통 크기이지만 얼마만큼 커질지 궁금하다</t>
+  </si>
+  <si>
+    <t>금년에는 왜 이렇게 빨리? 왜 이렇게 많이 태풍이 와?</t>
+  </si>
+  <si>
+    <t>폭염으로 비가 내리지 않아 나무가 마르기 시작했다</t>
+  </si>
+  <si>
+    <t>바다도 뜨거울 것이다. 서로 교환하여 차가운 바람이 불게 해 주었으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>기상청 예보대로 그대로 쭉 중국으로 향하기 바란다</t>
+  </si>
+  <si>
+    <t>당시 누군가 옆에서 세게 미는 것처럼 느껴질 정도의 거센 바람이 몰아쳤다. 제대로 서 있기조차 힘들었다</t>
+  </si>
+  <si>
+    <t>다행히 지붕이 떨어진 곳에는 아무도 없었다</t>
+  </si>
+  <si>
+    <t>아무도 안 다친 게 다행이다</t>
+  </si>
+  <si>
+    <t>오늘 같은 날은 쉬는 게 나을 것 같다</t>
+  </si>
+  <si>
+    <t>서울 송파구 거여동의 한 신축 공사장에 세워둔 가림막이 강한 바람 탓에 쓰러졌다</t>
+  </si>
+  <si>
+    <t>나무는 부러졌지만 정성껏 심은 벼는 많이 꺾이지 않았다</t>
+  </si>
+  <si>
+    <t>이제 태풍과의 전쟁 시작이다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바람이 너무 심해서 밖에 나가려다가 다시 들어왔다. </t>
+  </si>
+  <si>
+    <t>새벽 내내 천둥 쳐서 잠도 못 잤다</t>
+  </si>
+  <si>
+    <t>원래 물이 없는 건천인데, 너무 무서웠다. 저기에 휩쓸리면 차도 날아갈 것 같은 느낌이다</t>
+  </si>
+  <si>
+    <t>거친 파도에 바람소리는 난리도 아니다</t>
+  </si>
+  <si>
+    <t>태풍 지나갔다고 한시름 놓은 지 하루 만에 이번엔 지진.</t>
+  </si>
+  <si>
+    <t>새벽에 자다가 깨서 엄청 놀랐다. 처음 겪어본 지진인데, 생각보다 너무 무섭네</t>
+  </si>
+  <si>
+    <t>그나저나 정전이랑 단수부터 얼른 복구됐으면 좋겠다</t>
+  </si>
+  <si>
+    <t>제발 무사히 한국 가게 해주세요</t>
+  </si>
+  <si>
+    <t>내 휴가 참 재밌네. 정전되고 피난민이 따로 없음</t>
+  </si>
+  <si>
+    <t>태풍 난마돌로 인한 피해가 없길 바란다. 가뭄 해갈 원한다</t>
+  </si>
+  <si>
+    <t>우리동네 대설주의보 이게 무슨일이야. 그래도 눈덕에 출근 안했다.</t>
+  </si>
+  <si>
+    <t>진짜 일년에 눈 한 번 올까말까한 남부지방에 폭설이</t>
+  </si>
+  <si>
+    <t>지진도 이젠 지긋지긋하다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 가고 싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 식량이 다 떨어졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트가 정리 안 된지 꽤 됐다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부는 뭐 하는가?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집 바닥 다 갈라지네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 해야 하는데 상황이 더 심각해진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 라면 먹고 싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집밥이 그리워요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연재해는 뜨끈한 국밥이지…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 보고 싶다…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재앙이다.. 문재앙…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라산영화보고 죽을랬는데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 못본….</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 똥을….!!!(스윽 바지를 내린다…)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제 기분이 좋아질까</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>츄르르ㅡㄼ(마지막 남은 면발을 먹는다)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쯤 되면 죽는 게 더 나을 것 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>온몸이 아프다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 지내….</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원한 지 5일 째..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원밥이 맛이 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년 전만 해도 살기 좋았는데…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프니까 모든 게 다 서럽다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 나가기가 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들이 보고싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛이 사라진 지 오래다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프니까 청춘이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,6 +2062,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C2022"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1753,11 +2496,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A499" sqref="A499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4526,6 +5272,1606 @@
         <v>1</v>
       </c>
     </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>492</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DB124-5433-46A6-8A75-020E7BA0E37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>input</t>
   </si>
@@ -1888,13 +1889,17 @@
   </si>
   <si>
     <t>아프니까 청춘이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친 여기 원래 물도 없는 건천인데 개무서워 저거 휩쓸리면 차도 날아갈 것 같음</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2860,11 +2865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B500"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6872,6 +6877,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DB124-5433-46A6-8A75-020E7BA0E37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B008C271-04C5-4296-9AE8-F6DECF62121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1892,7 +1892,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>미친 여기 원래 물도 없는 건천인데 개무서워 저거 휩쓸리면 차도 날아갈 것 같음</t>
+    <t>미친 저거 휩쓸리면 차도 날아갈 것 같음 여기 원래 물도 없는 건천인데 개무서워</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2868,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B008C271-04C5-4296-9AE8-F6DECF62121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
   <si>
     <t>input</t>
   </si>
@@ -1893,13 +1892,57 @@
   </si>
   <si>
     <t>미친 저거 휩쓸리면 차도 날아갈 것 같음 여기 원래 물도 없는 건천인데 개무서워</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호강 가뭄이었는데 언제 바다 됐냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화대교 막힌지 1시간 째.. 언제 집가냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연휴양림에서 힐링하려다가 킬링당할 뻔 했네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산 속에 살고 있는 동물들은 어떻게 됐을까요…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘이 노하셨다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕괴한 백화점에서 살아남았다. 이건 기적이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 지금까지 겪은 일중 제일 아찔했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진 나자마자 바로 건물 옥상으로 뛰었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실사판 재난영화가 이런 기분인가.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 왜 행복해질 수 없는 걸까…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘 가서도 잘 지내…</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2865,11 +2908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+      <selection activeCell="A513" sqref="A513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6885,6 +6928,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nature\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
   <si>
     <t>input</t>
   </si>
@@ -1038,911 +1038,1063 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>지금 여행 왔는데 돌아가질 못하고 있습니다,.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제쯤 한국으로 돌아갈까요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 꿈이었으면 좋겠다..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 시민으로서 지진 제일 걱정되는 건 땅이 갈라져서 거기서 새로운 유물이 나오는 거임.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 회사인데 지진나자마자ㅋㅋㅋㅋㅋ 헐 지진이다 ㅇㅁㅇ..!! 이러구있는데 이사님: 다 저장해!! 저장해!!! 얼른!!!!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 지금 지진 땜에 기와 떨어지고 난리남 ㅎㄷㄷ 여진 땜에 혹시나 싶어 피신 중</t>
+  </si>
+  <si>
+    <t>지진나자마자 강아지랑 아이컨택함;; 7년 같이 살면서 이러케 날 간절히보는거 첨 봄..</t>
+  </si>
+  <si>
+    <t>긴급재난문자 안 오는 게 제일 어이가 없다. 여지껏 '긴급'하지도 않고 '재난'도 아닐 땐 폰을 쩌렁쩌렁 울리더니..</t>
+  </si>
+  <si>
+    <t>지진 나면 먼저 해야할일 ★★가스밸브 잠그기★★ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">고리 원전 근처에 살고 있다. </t>
+  </si>
+  <si>
+    <t>방금 샤워를 하던 도중 극한의 공포를 느꼈다. 집이 이대로 주저 앉을듯한 진동이었다.</t>
+  </si>
+  <si>
+    <t>또 지진와서 화분 깨졌다</t>
+  </si>
+  <si>
+    <t>우리나라도 지진 대피교육 같은거 일본처럼 일년에 두세번 의무적으로 교육할 수 있게 해라 제발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혹시나 해서 긴 옷, 생수 몇 병 챙겨  놓고 가스 잠가둠. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 아파트는 어떻게 피해야 하는지 모르겠다..</t>
+  </si>
+  <si>
+    <t>우리 동네도 원전있고 고준위 폐기물 쌓아둔 곳인데 어떻게 대처하라는 이야기 한마디 없다.</t>
+  </si>
+  <si>
+    <t>나 지금 긱사 무너졋다고!!!!</t>
+  </si>
+  <si>
+    <t>지나다니는 길이 이렇게 됬다고 건물 떨어져서.... </t>
+  </si>
+  <si>
+    <t>지진 났는데 앉아서 공부해.라니...</t>
+  </si>
+  <si>
+    <t>천장에 선풍기 흔들리고 겁에 질려있는 애들한테 공부하라고 침착하게 앉아있으라고.. 난 학교에서 생을 마감하라는줄 알았네 너무해 ...</t>
+  </si>
+  <si>
+    <t>아니 폭염이라고 문자는 잘도 보내주드만 정작 이렇게 위험할때는 문자도 안보내줌?</t>
+  </si>
+  <si>
+    <t>밤12시 넘어서 속보내보내는 지상파 뉴스 이게 무슨 속보냐</t>
+  </si>
+  <si>
+    <t>닭튀기다 기름튀기면 재난문자 보낼 기세네.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리나라 안전의식은 각자훈련해야합니다. </t>
+  </si>
+  <si>
+    <t>지진보다 무서운건 정부</t>
+  </si>
+  <si>
+    <t>대한민국은 후진국임을 자연이 스스로 보여줌</t>
+  </si>
+  <si>
+    <t>서울도 흔들렸어요...</t>
+  </si>
+  <si>
+    <t>인천에서 12층사는 나도 앉아있던 의자가흔들렸는데..</t>
+  </si>
+  <si>
+    <t>노답이네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 지진나면 바로 공터로 나가야 합니다</t>
+  </si>
+  <si>
+    <t>재난대피문자 오지도않음ㅡㅡ</t>
+  </si>
+  <si>
+    <t>난 태연하게 밥 먹었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기왓장 좀 떨어지고 유리몇장 깨진 정도의 지진이었는데,, 세상에 이런 지진이 또 어디있나! </t>
+  </si>
+  <si>
+    <t>경상도 남쪽 고층 아파트 사는 사람들은 낙하산이라도 하나씩 준비해 두어야 겠구만.</t>
+  </si>
+  <si>
+    <t>곧 죽어도 인터넷은 안할수없지</t>
+  </si>
+  <si>
+    <t>우리나라 안전 불감증은 문제다.</t>
+  </si>
+  <si>
+    <t>시청 근무자는 태풍이기 때문에 휴일에 출근하지 않을 수 없었겠지요.</t>
+  </si>
+  <si>
+    <t>나도 태풍에도 출근하지 않을 수 없는 직종이라서, 어제 퇴근하는 게 무서웠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국의 피해상황을 보고 있으면, 유감스럽게도 더 늘어날 것 같네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 피난 권고가 나와 처음으로 피난했습니다만, 부족한 것도 많아 재차 깨닫게 되는 점이 많았습니다.</t>
+  </si>
+  <si>
+    <t>이번 일을 교훈으로 와주길 바라진 않지만 다음을 대비하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>노인은 왜 태풍이 오면 바깥 모습을 보고 싶어 하는 걸까.</t>
+  </si>
+  <si>
+    <t>산사태, 차로 피해서 떠내려가는 등...정말로 마음이 아픕니다. 무서운 태풍이었어요...</t>
+  </si>
+  <si>
+    <t>바깥 모습을 보러 갔다 오겠다고 집을 나간 고령 남성이 돌아가셨다고 뉴스에서 봤습니다.</t>
+  </si>
+  <si>
+    <t>아직 파악되지 않은 것도 많이 있다고 생각해.</t>
+  </si>
+  <si>
+    <t>헬기로 인명 구조를 하는 장면이 보도되고 있어요.</t>
+  </si>
+  <si>
+    <t>보도헬기를 띄우는 것은 삼가줄 수 없을까.</t>
+  </si>
+  <si>
+    <t>재해 상황의 보도는 필요하다고 생각하지만, 방해만은 하지 않았으면 한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피난 권고가 나온다면 직원의 안전을 위해서 편의점이라도 문을 닫아야 한다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>뉴스에서 한 분은 퇴근길에 돌아가셨다고 보도하고 있었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어쩔 수 없는 사정이 없는데 피난 지시가 내려져도 피난하지 않는다, </t>
+  </si>
+  <si>
+    <t>이렇게 위험을 주지하고 있어도 "바깥 모습을 보러 간다"고 말하고 외출했다가 숨지는 사람은 있구나.</t>
+  </si>
+  <si>
+    <t>한국인이 아무리 성실하다고 해도 상황을 보고 신문이나 우유 배달은 하지 맙시다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국 어디를 가든지 비, 산간 지역과 하천 근처의 사람은 빠른 판단으로 피난하는 것이 좋다고 생각한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대참사가 될 것 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대자연의 힘은 위대하다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 피해자가 나오지 않기를 간절히 바랍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 피난해 주었으면 합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해는 예상보다 광범위.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 부산… 나무가 장난이 아니게 흔들리네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주, 대전 주민들은 고지대로 피신 중… 다들 별일 없기를..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구는 재난영화 분위기가 물씬 풍기네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼의 물은 다 동이 났고, 은행 등 각종 기관들은 영업을 중단하거나 단축 영업을 실시하고 있습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개와 비가 쏟아지기 시작, 지금은 밤 10시 56분.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도시티에 점점 바람이 세게 불어오기 시작합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 아침에 가장 심할 거라고 집밖으로 나오지 말라는데요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어뜩해요 지금 울산인데 비 쏟아지고 바람 쩔게 불고 난리도 아니에요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 집 있는 대구타운이 젤 심각 하대요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문을 잠시 열었다가 어푸어푸 하고 도로 닫았다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주는 정전에 폭풍에 길은 잠기고 나무들은 부러지고 난리…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 아침에 허리케인이 우리 동네 지나간다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비바람이 문제가 아니고, 정전으로 전기장판이 없어 등이 시린 게 문제다…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 비가 살수차로 뿌리는 것 처럼 내리는데.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>간판 떨어져서 주차장에 차 박아라!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>점점 비와 바람소리가 심해지고 있어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>티비에서는 모든 채널이 하루 종일 태풍 뉴스뿐이네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대중교통이 오후 9시에 중단됐어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호텔 경비원은 창문이 부숴질 수도 있으니 창문의 커튼을 치랍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 집에서 동쪽으로 4시간 거리로 피난 와 있음.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기저기서 사이렌 소리만 요란.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 갇혀있다. 개강이 미뤄졌다!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 현재 비상! 재난영화 찍는 느낌이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼에 사람들이 물 산다고 줄 서는거 처음이다…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘밤 잘 버텨내야 하는데… 대구 힘내라!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 동네는 가게들은 열지도 않고 작은 슈퍼만 열었는데 물건이 남지 않았다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스를 보니 정확히 우리집을 지나간다고 한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>불이 꺼진 이 도시가 참으로 바람으로 고요해진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 추워 집 나가자마자 비명 지를 뻔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 추워서 콧물로 얼음… 어이 없어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨 크게 들이마시고 콧속 수증기 얼어서 살얼음 낌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 인간은 겨울잠을 자지 않지? 너무 추워서 동면할 것 같음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 학교는 산에 있어서 더 추운데.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1도 이하에선 롱패딩도 추워 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 진짜 완전 추워서 트위터도 못할 것 같아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 살다살다 이런 폭설은 처음 봅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈 이만큼 쌓이는 게 몇 년 만이지?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸을 수 없을 정도로 눈이 쌓였다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산에도 많은 눈이 내렸네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산에는 눈 내리는 자체가 기적이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서면지하철역에는 하도 사람이 밀려서 3~4번씩 차를 기다려야 탈 수 있을 정도라네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈 덮힌 출근길!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산에서 보기 드문 광경입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 무사히 출근하셨나요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부지방에 폭설이라는데 눈에 익숙치 않은 지역이라 괜찮으신지 걱정되네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여태 대구살면서 이만큼 눈 온거 처음 본다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주에서 20년 살면서 수해를 처음 겪었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주는 그동안 메마른 내륙이었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주 원래 물난리 잘 나는 도시입니까?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>군부대라도 동원해서 신속히 조치해야 하는 거 아닌가요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>향후 중고차 시장이 도배되겠군.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수는 개뿔.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 떠들어도 개울 건널 사람은 건너고 한강에 주차할 사람은 주차하고 물놀이 갈 사람은 간다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방 아저씨들만 안타까운 일 하시고…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날 좋다고 덥다고 산에 캠핑 간다고 계곡 간다고…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 대비하면 피해를 많이 줄일 수 있죠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인회사에서 일하는 친구가 지진 느껴지자마자 컨트롤 에스부터 눌렀데</t>
+  </si>
+  <si>
+    <t>야 넌 어떻게 된게 고양이란 애가 지진도 못느끼고 거기서 퍼질러져잇냐</t>
+  </si>
+  <si>
+    <t>근데 내일 수능 보는 분들 학교에서 지진나면 진짜 어떡할까싶은데 그냥 그대로 수능진행하게 할것같은 현실적인 미래만 보임</t>
+  </si>
+  <si>
+    <t>금오공대 지진나서 창문깨졌어. 대박</t>
+  </si>
+  <si>
+    <t>포항지진 도로파열</t>
+  </si>
+  <si>
+    <t>지진나서 운동장에 물 터졌어.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개웃겨 수업에서 지진 얘기 하고 있는데 지진 문자 왔어.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누워있다가 '오 침대 좋은데? 내 비트에 맞춰 움직이다니' 했는데 알고보니 지진이라서 좀 놀랐다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재난문자가 지진보다 먼저온건 오랜만이야.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가철에 웬 날벼락.</t>
+  </si>
+  <si>
+    <t>태풍 나크리 경로 그나마 다행이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCT 정우 눈길에서 미끄러졌대.. 걱정된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>님들 길 걸어갈 때 핸드폰 보지마셈.. 넘어짐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 장마로 우리집 절반이 파손됐었다</t>
+  </si>
+  <si>
+    <t>정말 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍이 강력해서 집에 남아 있을 수 없었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍도 한국이 싫은가봐…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비 언제 그치냐!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장마,비구름이랑 합쳐진다면 비폭탄을 맞을 것 같습니다.</t>
+  </si>
+  <si>
+    <t>와야 오는거고,피해 당해봐야 아는겁니다..</t>
+  </si>
+  <si>
+    <t>우리나라는 조용히 지나가라…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산 대부도에 상륙한 태풍 링링이 우리 집을 강타했다</t>
+  </si>
+  <si>
+    <t>앞서 고양이를 집 안으로 대피시켰기에 망정이지 큰일이 날 뻔했다</t>
+  </si>
+  <si>
+    <t>사람과 고양이 모두 다치지 않은 것에 감사할 따름이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 저녁 9시…갈수록 거세지는 파도 무섭게 몰아치네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직까지 바람이 장난이 아닙니다. </t>
+  </si>
+  <si>
+    <t>밖에 나가기 무서운 아침입니다.</t>
+  </si>
+  <si>
+    <t>이렇게 천천히 움직이는 태풍은 처음이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저렇게 큰 무지개는 생전에 처음 본다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰지 않고 걸어가는 태풍.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스를 통해 본 제주의 마을이다 지역의 모습은 처참했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍이 가면 갈수록 속도는 늦어지고 힘은 더 세진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을을 제이하고 대부분의 마을들이 정전과 단수를 겪었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을을 최소 지역으로 기준 잡아도 될 정도이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닷가나 산간지역 등은 몇배수의 고통을 겪고 있을 것이라고 생각한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무가 정말 많이 흔들린다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 순간 많이 왔다가 그쳤다가를 반복한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>허리를 펴고 걸을 순 있지만, 순간 바람이 세차게 불 때는 움추려든다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>충분히 위협적이고 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전이나 단수는 아직 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>육지분들, 정말 준비 단단히 하셔야 합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 이대로 육지를 관통한다면, 정말 재앙 수준일 것이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가를 내서라도 집에 대피해 있어야겠다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 강하다. 이번 태풍은.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍아 잠좀 자자.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 부산은 아비규환이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전만큼 중요한 게 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 무사히 지나가길…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 동네는 거의 초토화 됐어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근하는 길도 목숨 내놓고 했어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 나무가 차 앞으로 쓰러졌어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장이 나대고 닭살과 소름이 돋았지만 출근 했네요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로엔 나뭇가지들도 날아다니고 통행이 어렵습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서워… 잠도 제대로 못 잤다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날아갈까봐 무서워…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 태풍이라도 아니 무엇이라도 좋기때문에 이 더위를 날려보낼 무엇이 오기를 원한다. 너무 더워</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금 태풍을 상대할 여유가 없다. </t>
+  </si>
+  <si>
+    <t>태풍은 꺼져, 소나기는 환영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다음에, 다음에도 오지마라. 제발~ </t>
+  </si>
+  <si>
+    <t>지진도, 비도, 강풍도 무서워요</t>
+  </si>
+  <si>
+    <t>태풍의 에너지를 무언가 다른 곳에 사용할 수 있었으면 한다</t>
+  </si>
+  <si>
+    <t>얼마나 많은 비가 내릴까요? 큰 재해가 없었으면 합니다.</t>
+  </si>
+  <si>
+    <t>지금 현재도 지진과 폭우로 인한 복구작업 중인데 태풍까지 다시 온다면 정말 큰일입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">올해 여름은 기록 경신의 여름이구나. 폭염도 태풍도 지진도..무섭다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">올해 장마가 빨리 끝났다고 생각하면 오산일까? </t>
+  </si>
+  <si>
+    <t>태풍도 무섭지만 지금 더운 것이 더 무섭다</t>
+  </si>
+  <si>
+    <t>소나기만 뿌리고 가 이 더위가 물러갔으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>올해는 이것까지 하면 벌써 세번째 태풍인가? 역시 이상기후 탓이겠죠?</t>
+  </si>
+  <si>
+    <t>아직 태풍이 보통 크기이지만 얼마만큼 커질지 궁금하다</t>
+  </si>
+  <si>
+    <t>금년에는 왜 이렇게 빨리? 왜 이렇게 많이 태풍이 와?</t>
+  </si>
+  <si>
+    <t>폭염으로 비가 내리지 않아 나무가 마르기 시작했다</t>
+  </si>
+  <si>
+    <t>바다도 뜨거울 것이다. 서로 교환하여 차가운 바람이 불게 해 주었으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>기상청 예보대로 그대로 쭉 중국으로 향하기 바란다</t>
+  </si>
+  <si>
+    <t>당시 누군가 옆에서 세게 미는 것처럼 느껴질 정도의 거센 바람이 몰아쳤다. 제대로 서 있기조차 힘들었다</t>
+  </si>
+  <si>
+    <t>다행히 지붕이 떨어진 곳에는 아무도 없었다</t>
+  </si>
+  <si>
+    <t>아무도 안 다친 게 다행이다</t>
+  </si>
+  <si>
+    <t>오늘 같은 날은 쉬는 게 나을 것 같다</t>
+  </si>
+  <si>
+    <t>서울 송파구 거여동의 한 신축 공사장에 세워둔 가림막이 강한 바람 탓에 쓰러졌다</t>
+  </si>
+  <si>
+    <t>나무는 부러졌지만 정성껏 심은 벼는 많이 꺾이지 않았다</t>
+  </si>
+  <si>
+    <t>이제 태풍과의 전쟁 시작이다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바람이 너무 심해서 밖에 나가려다가 다시 들어왔다. </t>
+  </si>
+  <si>
+    <t>새벽 내내 천둥 쳐서 잠도 못 잤다</t>
+  </si>
+  <si>
+    <t>원래 물이 없는 건천인데, 너무 무서웠다. 저기에 휩쓸리면 차도 날아갈 것 같은 느낌이다</t>
+  </si>
+  <si>
+    <t>거친 파도에 바람소리는 난리도 아니다</t>
+  </si>
+  <si>
+    <t>태풍 지나갔다고 한시름 놓은 지 하루 만에 이번엔 지진.</t>
+  </si>
+  <si>
+    <t>새벽에 자다가 깨서 엄청 놀랐다. 처음 겪어본 지진인데, 생각보다 너무 무섭네</t>
+  </si>
+  <si>
+    <t>그나저나 정전이랑 단수부터 얼른 복구됐으면 좋겠다</t>
+  </si>
+  <si>
+    <t>제발 무사히 한국 가게 해주세요</t>
+  </si>
+  <si>
+    <t>내 휴가 참 재밌네. 정전되고 피난민이 따로 없음</t>
+  </si>
+  <si>
+    <t>태풍 난마돌로 인한 피해가 없길 바란다. 가뭄 해갈 원한다</t>
+  </si>
+  <si>
+    <t>우리동네 대설주의보 이게 무슨일이야. 그래도 눈덕에 출근 안했다.</t>
+  </si>
+  <si>
+    <t>진짜 일년에 눈 한 번 올까말까한 남부지방에 폭설이</t>
+  </si>
+  <si>
+    <t>지진도 이젠 지긋지긋하다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 가고 싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 식량이 다 떨어졌다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트가 정리 안 된지 꽤 됐다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부는 뭐 하는가?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집 바닥 다 갈라지네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 해야 하는데 상황이 더 심각해진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 라면 먹고 싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>집밥이 그리워요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연재해는 뜨끈한 국밥이지…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 보고 싶다…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재앙이다.. 문재앙…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라산영화보고 죽을랬는데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 못본….</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 똥을….!!!(스윽 바지를 내린다…)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제 기분이 좋아질까</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>츄르르ㅡㄼ(마지막 남은 면발을 먹는다)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쯤 되면 죽는 게 더 나을 것 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>온몸이 아프다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 지내….</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원한 지 5일 째..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원밥이 맛이 없다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년 전만 해도 살기 좋았는데…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프니까 모든 게 다 서럽다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖에 나가기가 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들이 보고싶다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛이 사라진 지 오래다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프니까 청춘이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친 저거 휩쓸리면 차도 날아갈 것 같음 여기 원래 물도 없는 건천인데 개무서워</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호강 가뭄이었는데 언제 바다 됐냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양화대교 막힌지 1시간 째.. 언제 집가냐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연휴양림에서 힐링하려다가 킬링당할 뻔 했네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>산 속에 살고 있는 동물들은 어떻게 됐을까요…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘이 노하셨다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕괴한 백화점에서 살아남았다. 이건 기적이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 지금까지 겪은 일중 제일 아찔했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진 나자마자 바로 건물 옥상으로 뛰었다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실사판 재난영화가 이런 기분인가.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 왜 행복해질 수 없는 걸까…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘 가서도 잘 지내…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손흥민 선수 재난 피해 복구 지원금 기부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조인력이 너무 부족한가봐 아무도 안와</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 지진도 태풍도 전부 너무 무섭다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해수면의 온도가 높아져 태풍이 더욱 강해질까 염려된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이 너무 세게 불어서 옆에서 누가 나 미는줄 알았음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 내 위에서 물을 들이 붙는것 같다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 태풍은 바람보다 비를 더 몰고온다고 하네요 홍수 조심하세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 썰물처럼 물 빠지는데 이거 해일 맞지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주인데 지금 태풍때문에 물난리 났어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 아무 피해 없는뎈ㅋ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도에 태풍 피해가 심각하다네요 다들 괜찮으신가요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제까지 제주도에 있어야 하나 궁금합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻밖의 공항 노숙중..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에는 재발 비가 적게 왔으면 좋겠네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 갇혀 있어요 사람좀 구해주세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 태풍이 도착하지도 않았는데 비가 참 많이 오네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 어머니 태풍때문에 다치셔서 병원 가셨음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 방금 다쳤네요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 분명 비가 안온다고 했는데..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 재난문자가 동시에 울리지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 무서워요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 집에서 갇혀가지고 꼼짝도 못하고 있습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진으로 교통사고가 심하게 난거 같은데 무섭네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정도면 사람 죽을거 같은데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 이미 죽은 목숨인거 같네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저 살려주세요 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 구조 기원합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재석 구호 재단에 천만원 기부 "빠른 구조 부탁드려.."</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 가스 밸브 잠궈주세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진동 느껴지는거 같은데 저만 그런가요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어폰 꽂고 있다가 밖에 무슨일 났는지도 몰랐네</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 해일때문에 배가 기울어지고 있어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해일 때문에 배가 가라앉고 있어요 살려주세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 지금 배안에 갇혀있어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 잔해에 갇혔어요 살려주세요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 건물옥상에서 꼼짝도 못하고 있어요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 저기 구조헬기 뜬다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전하게 구조 부탁드립니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>항공기 전부 결항이네요</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 여행 왔는데 돌아가질 못하고 있습니다,.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>언제쯤 한국으로 돌아갈까요..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>다 꿈이었으면 좋겠다..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주 시민으로서 지진 제일 걱정되는 건 땅이 갈라져서 거기서 새로운 유물이 나오는 거임.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 회사인데 지진나자마자ㅋㅋㅋㅋㅋ 헐 지진이다 ㅇㅁㅇ..!! 이러구있는데 이사님: 다 저장해!! 저장해!!! 얼른!!!!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주 지금 지진 땜에 기와 떨어지고 난리남 ㅎㄷㄷ 여진 땜에 혹시나 싶어 피신 중</t>
-  </si>
-  <si>
-    <t>지진나자마자 강아지랑 아이컨택함;; 7년 같이 살면서 이러케 날 간절히보는거 첨 봄..</t>
-  </si>
-  <si>
-    <t>긴급재난문자 안 오는 게 제일 어이가 없다. 여지껏 '긴급'하지도 않고 '재난'도 아닐 땐 폰을 쩌렁쩌렁 울리더니..</t>
-  </si>
-  <si>
-    <t>지진 나면 먼저 해야할일 ★★가스밸브 잠그기★★ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">고리 원전 근처에 살고 있다. </t>
-  </si>
-  <si>
-    <t>방금 샤워를 하던 도중 극한의 공포를 느꼈다. 집이 이대로 주저 앉을듯한 진동이었다.</t>
-  </si>
-  <si>
-    <t>또 지진와서 화분 깨졌다</t>
-  </si>
-  <si>
-    <t>우리나라도 지진 대피교육 같은거 일본처럼 일년에 두세번 의무적으로 교육할 수 있게 해라 제발</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">혹시나 해서 긴 옷, 생수 몇 병 챙겨  놓고 가스 잠가둠. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 아파트는 어떻게 피해야 하는지 모르겠다..</t>
-  </si>
-  <si>
-    <t>우리 동네도 원전있고 고준위 폐기물 쌓아둔 곳인데 어떻게 대처하라는 이야기 한마디 없다.</t>
-  </si>
-  <si>
-    <t>나 지금 긱사 무너졋다고!!!!</t>
-  </si>
-  <si>
-    <t>지나다니는 길이 이렇게 됬다고 건물 떨어져서.... </t>
-  </si>
-  <si>
-    <t>지진 났는데 앉아서 공부해.라니...</t>
-  </si>
-  <si>
-    <t>천장에 선풍기 흔들리고 겁에 질려있는 애들한테 공부하라고 침착하게 앉아있으라고.. 난 학교에서 생을 마감하라는줄 알았네 너무해 ...</t>
-  </si>
-  <si>
-    <t>아니 폭염이라고 문자는 잘도 보내주드만 정작 이렇게 위험할때는 문자도 안보내줌?</t>
-  </si>
-  <si>
-    <t>밤12시 넘어서 속보내보내는 지상파 뉴스 이게 무슨 속보냐</t>
-  </si>
-  <si>
-    <t>닭튀기다 기름튀기면 재난문자 보낼 기세네.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리나라 안전의식은 각자훈련해야합니다. </t>
-  </si>
-  <si>
-    <t>지진보다 무서운건 정부</t>
-  </si>
-  <si>
-    <t>대한민국은 후진국임을 자연이 스스로 보여줌</t>
-  </si>
-  <si>
-    <t>서울도 흔들렸어요...</t>
-  </si>
-  <si>
-    <t>인천에서 12층사는 나도 앉아있던 의자가흔들렸는데..</t>
-  </si>
-  <si>
-    <t>노답이네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 지진나면 바로 공터로 나가야 합니다</t>
-  </si>
-  <si>
-    <t>재난대피문자 오지도않음ㅡㅡ</t>
-  </si>
-  <si>
-    <t>난 태연하게 밥 먹었다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기왓장 좀 떨어지고 유리몇장 깨진 정도의 지진이었는데,, 세상에 이런 지진이 또 어디있나! </t>
-  </si>
-  <si>
-    <t>경상도 남쪽 고층 아파트 사는 사람들은 낙하산이라도 하나씩 준비해 두어야 겠구만.</t>
-  </si>
-  <si>
-    <t>곧 죽어도 인터넷은 안할수없지</t>
-  </si>
-  <si>
-    <t>우리나라 안전 불감증은 문제다.</t>
-  </si>
-  <si>
-    <t>시청 근무자는 태풍이기 때문에 휴일에 출근하지 않을 수 없었겠지요.</t>
-  </si>
-  <si>
-    <t>나도 태풍에도 출근하지 않을 수 없는 직종이라서, 어제 퇴근하는 게 무서웠다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국의 피해상황을 보고 있으면, 유감스럽게도 더 늘어날 것 같네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 피난 권고가 나와 처음으로 피난했습니다만, 부족한 것도 많아 재차 깨닫게 되는 점이 많았습니다.</t>
-  </si>
-  <si>
-    <t>이번 일을 교훈으로 와주길 바라진 않지만 다음을 대비하고 싶습니다.</t>
-  </si>
-  <si>
-    <t>노인은 왜 태풍이 오면 바깥 모습을 보고 싶어 하는 걸까.</t>
-  </si>
-  <si>
-    <t>산사태, 차로 피해서 떠내려가는 등...정말로 마음이 아픕니다. 무서운 태풍이었어요...</t>
-  </si>
-  <si>
-    <t>바깥 모습을 보러 갔다 오겠다고 집을 나간 고령 남성이 돌아가셨다고 뉴스에서 봤습니다.</t>
-  </si>
-  <si>
-    <t>아직 파악되지 않은 것도 많이 있다고 생각해.</t>
-  </si>
-  <si>
-    <t>헬기로 인명 구조를 하는 장면이 보도되고 있어요.</t>
-  </si>
-  <si>
-    <t>보도헬기를 띄우는 것은 삼가줄 수 없을까.</t>
-  </si>
-  <si>
-    <t>재해 상황의 보도는 필요하다고 생각하지만, 방해만은 하지 않았으면 한다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피난 권고가 나온다면 직원의 안전을 위해서 편의점이라도 문을 닫아야 한다고 생각합니다.</t>
-  </si>
-  <si>
-    <t>뉴스에서 한 분은 퇴근길에 돌아가셨다고 보도하고 있었다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어쩔 수 없는 사정이 없는데 피난 지시가 내려져도 피난하지 않는다, </t>
-  </si>
-  <si>
-    <t>이렇게 위험을 주지하고 있어도 "바깥 모습을 보러 간다"고 말하고 외출했다가 숨지는 사람은 있구나.</t>
-  </si>
-  <si>
-    <t>한국인이 아무리 성실하다고 해도 상황을 보고 신문이나 우유 배달은 하지 맙시다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국 어디를 가든지 비, 산간 지역과 하천 근처의 사람은 빠른 판단으로 피난하는 것이 좋다고 생각한다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대참사가 될 것 같다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대자연의 힘은 위대하다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 이상 피해자가 나오지 않기를 간절히 바랍니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨리 피난해 주었으면 합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해는 예상보다 광범위.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 부산… 나무가 장난이 아니게 흔들리네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주, 대전 주민들은 고지대로 피신 중… 다들 별일 없기를..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구는 재난영화 분위기가 물씬 풍기네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼의 물은 다 동이 났고, 은행 등 각종 기관들은 영업을 중단하거나 단축 영업을 실시하고 있습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>번개와 비가 쏟아지기 시작, 지금은 밤 10시 56분.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주도시티에 점점 바람이 세게 불어오기 시작합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일 아침에 가장 심할 거라고 집밖으로 나오지 말라는데요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>어뜩해요 지금 울산인데 비 쏟아지고 바람 쩔게 불고 난리도 아니에요..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 집 있는 대구타운이 젤 심각 하대요..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>창문을 잠시 열었다가 어푸어푸 하고 도로 닫았다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주는 정전에 폭풍에 길은 잠기고 나무들은 부러지고 난리…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일 아침에 허리케인이 우리 동네 지나간다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비바람이 문제가 아니고, 정전으로 전기장판이 없어 등이 시린 게 문제다…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖에 비가 살수차로 뿌리는 것 처럼 내리는데.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>간판 떨어져서 주차장에 차 박아라!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>점점 비와 바람소리가 심해지고 있어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>티비에서는 모든 채널이 하루 종일 태풍 뉴스뿐이네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대중교통이 오후 9시에 중단됐어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>호텔 경비원은 창문이 부숴질 수도 있으니 창문의 커튼을 치랍니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 집에서 동쪽으로 4시간 거리로 피난 와 있음.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기저기서 사이렌 소리만 요란.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>집에 갇혀있다. 개강이 미뤄졌다!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산 현재 비상! 재난영화 찍는 느낌이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼에 사람들이 물 산다고 줄 서는거 처음이다…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘밤 잘 버텨내야 하는데… 대구 힘내라!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 동네는 가게들은 열지도 않고 작은 슈퍼만 열었는데 물건이 남지 않았다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스를 보니 정확히 우리집을 지나간다고 한다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>불이 꺼진 이 도시가 참으로 바람으로 고요해진다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>너무 추워 집 나가자마자 비명 지를 뻔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>너무 추워서 콧물로 얼음… 어이 없어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>숨 크게 들이마시고 콧속 수증기 얼어서 살얼음 낌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 인간은 겨울잠을 자지 않지? 너무 추워서 동면할 것 같음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 학교는 산에 있어서 더 추운데.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1도 이하에선 롱패딩도 추워 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖에 진짜 완전 추워서 트위터도 못할 것 같아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>진짜 살다살다 이런 폭설은 처음 봅니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈 이만큼 쌓이는 게 몇 년 만이지?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸을 수 없을 정도로 눈이 쌓였다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산에도 많은 눈이 내렸네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산에는 눈 내리는 자체가 기적이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>서면지하철역에는 하도 사람이 밀려서 3~4번씩 차를 기다려야 탈 수 있을 정도라네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈 덮힌 출근길!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산에서 보기 드문 광경입니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 무사히 출근하셨나요?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>남부지방에 폭설이라는데 눈에 익숙치 않은 지역이라 괜찮으신지 걱정되네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>여태 대구살면서 이만큼 눈 온거 처음 본다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주에서 20년 살면서 수해를 처음 겪었다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주는 그동안 메마른 내륙이었다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>청주 원래 물난리 잘 나는 도시입니까?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>군부대라도 동원해서 신속히 조치해야 하는 거 아닌가요?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>향후 중고차 시장이 도배되겠군.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍수는 개뿔.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이렇게 떠들어도 개울 건널 사람은 건너고 한강에 주차할 사람은 주차하고 물놀이 갈 사람은 간다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방 아저씨들만 안타까운 일 하시고…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>날 좋다고 덥다고 산에 캠핑 간다고 계곡 간다고…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리 대비하면 피해를 많이 줄일 수 있죠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인회사에서 일하는 친구가 지진 느껴지자마자 컨트롤 에스부터 눌렀데</t>
-  </si>
-  <si>
-    <t>야 넌 어떻게 된게 고양이란 애가 지진도 못느끼고 거기서 퍼질러져잇냐</t>
-  </si>
-  <si>
-    <t>근데 내일 수능 보는 분들 학교에서 지진나면 진짜 어떡할까싶은데 그냥 그대로 수능진행하게 할것같은 현실적인 미래만 보임</t>
-  </si>
-  <si>
-    <t>금오공대 지진나서 창문깨졌어. 대박</t>
-  </si>
-  <si>
-    <t>포항지진 도로파열</t>
-  </si>
-  <si>
-    <t>지진나서 운동장에 물 터졌어.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>개웃겨 수업에서 지진 얘기 하고 있는데 지진 문자 왔어.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>누워있다가 '오 침대 좋은데? 내 비트에 맞춰 움직이다니' 했는데 알고보니 지진이라서 좀 놀랐다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재난문자가 지진보다 먼저온건 오랜만이야.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴가철에 웬 날벼락.</t>
-  </si>
-  <si>
-    <t>태풍 나크리 경로 그나마 다행이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCT 정우 눈길에서 미끄러졌대.. 걱정된다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>님들 길 걸어갈 때 핸드폰 보지마셈.. 넘어짐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지난 장마로 우리집 절반이 파손됐었다</t>
-  </si>
-  <si>
-    <t>정말 무섭다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>태풍이 강력해서 집에 남아 있을 수 없었다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>태풍도 한국이 싫은가봐…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비 언제 그치냐!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장마,비구름이랑 합쳐진다면 비폭탄을 맞을 것 같습니다.</t>
-  </si>
-  <si>
-    <t>와야 오는거고,피해 당해봐야 아는겁니다..</t>
-  </si>
-  <si>
-    <t>우리나라는 조용히 지나가라…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>안산 대부도에 상륙한 태풍 링링이 우리 집을 강타했다</t>
-  </si>
-  <si>
-    <t>앞서 고양이를 집 안으로 대피시켰기에 망정이지 큰일이 날 뻔했다</t>
-  </si>
-  <si>
-    <t>사람과 고양이 모두 다치지 않은 것에 감사할 따름이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은 저녁 9시…갈수록 거세지는 파도 무섭게 몰아치네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직까지 바람이 장난이 아닙니다. </t>
-  </si>
-  <si>
-    <t>밖에 나가기 무서운 아침입니다.</t>
-  </si>
-  <si>
-    <t>이렇게 천천히 움직이는 태풍은 처음이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>저렇게 큰 무지개는 생전에 처음 본다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰지 않고 걸어가는 태풍.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스를 통해 본 제주의 마을이다 지역의 모습은 처참했다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>태풍이 가면 갈수록 속도는 늦어지고 힘은 더 세진다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 마을을 제이하고 대부분의 마을들이 정전과 단수를 겪었다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 마을을 최소 지역으로 기준 잡아도 될 정도이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닷가나 산간지역 등은 몇배수의 고통을 겪고 있을 것이라고 생각한다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무가 정말 많이 흔들린다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비가 순간 많이 왔다가 그쳤다가를 반복한다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>허리를 펴고 걸을 순 있지만, 순간 바람이 세차게 불 때는 움추려든다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>충분히 위협적이고 무섭다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정전이나 단수는 아직 없다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>육지분들, 정말 준비 단단히 하셔야 합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 이대로 육지를 관통한다면, 정말 재앙 수준일 것이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴가를 내서라도 집에 대피해 있어야겠다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 강하다. 이번 태풍은.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>태풍아 잠좀 자자.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 부산은 아비규환이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전만큼 중요한 게 없다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제발 무사히 지나가길…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>저희 동네는 거의 초토화 됐어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>출근하는 길도 목숨 내놓고 했어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰 나무가 차 앞으로 쓰러졌어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>심장이 나대고 닭살과 소름이 돋았지만 출근 했네요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도로엔 나뭇가지들도 날아다니고 통행이 어렵습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>무서워… 잠도 제대로 못 잤다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>날아갈까봐 무서워…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미 태풍이라도 아니 무엇이라도 좋기때문에 이 더위를 날려보낼 무엇이 오기를 원한다. 너무 더워</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지금 태풍을 상대할 여유가 없다. </t>
-  </si>
-  <si>
-    <t>태풍은 꺼져, 소나기는 환영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다음에, 다음에도 오지마라. 제발~ </t>
-  </si>
-  <si>
-    <t>지진도, 비도, 강풍도 무서워요</t>
-  </si>
-  <si>
-    <t>태풍의 에너지를 무언가 다른 곳에 사용할 수 있었으면 한다</t>
-  </si>
-  <si>
-    <t>얼마나 많은 비가 내릴까요? 큰 재해가 없었으면 합니다.</t>
-  </si>
-  <si>
-    <t>지금 현재도 지진과 폭우로 인한 복구작업 중인데 태풍까지 다시 온다면 정말 큰일입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">올해 여름은 기록 경신의 여름이구나. 폭염도 태풍도 지진도..무섭다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">올해 장마가 빨리 끝났다고 생각하면 오산일까? </t>
-  </si>
-  <si>
-    <t>태풍도 무섭지만 지금 더운 것이 더 무섭다</t>
-  </si>
-  <si>
-    <t>소나기만 뿌리고 가 이 더위가 물러갔으면 좋겠다.</t>
-  </si>
-  <si>
-    <t>올해는 이것까지 하면 벌써 세번째 태풍인가? 역시 이상기후 탓이겠죠?</t>
-  </si>
-  <si>
-    <t>아직 태풍이 보통 크기이지만 얼마만큼 커질지 궁금하다</t>
-  </si>
-  <si>
-    <t>금년에는 왜 이렇게 빨리? 왜 이렇게 많이 태풍이 와?</t>
-  </si>
-  <si>
-    <t>폭염으로 비가 내리지 않아 나무가 마르기 시작했다</t>
-  </si>
-  <si>
-    <t>바다도 뜨거울 것이다. 서로 교환하여 차가운 바람이 불게 해 주었으면 좋겠다.</t>
-  </si>
-  <si>
-    <t>기상청 예보대로 그대로 쭉 중국으로 향하기 바란다</t>
-  </si>
-  <si>
-    <t>당시 누군가 옆에서 세게 미는 것처럼 느껴질 정도의 거센 바람이 몰아쳤다. 제대로 서 있기조차 힘들었다</t>
-  </si>
-  <si>
-    <t>다행히 지붕이 떨어진 곳에는 아무도 없었다</t>
-  </si>
-  <si>
-    <t>아무도 안 다친 게 다행이다</t>
-  </si>
-  <si>
-    <t>오늘 같은 날은 쉬는 게 나을 것 같다</t>
-  </si>
-  <si>
-    <t>서울 송파구 거여동의 한 신축 공사장에 세워둔 가림막이 강한 바람 탓에 쓰러졌다</t>
-  </si>
-  <si>
-    <t>나무는 부러졌지만 정성껏 심은 벼는 많이 꺾이지 않았다</t>
-  </si>
-  <si>
-    <t>이제 태풍과의 전쟁 시작이다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 너무 심해서 밖에 나가려다가 다시 들어왔다. </t>
-  </si>
-  <si>
-    <t>새벽 내내 천둥 쳐서 잠도 못 잤다</t>
-  </si>
-  <si>
-    <t>원래 물이 없는 건천인데, 너무 무서웠다. 저기에 휩쓸리면 차도 날아갈 것 같은 느낌이다</t>
-  </si>
-  <si>
-    <t>거친 파도에 바람소리는 난리도 아니다</t>
-  </si>
-  <si>
-    <t>태풍 지나갔다고 한시름 놓은 지 하루 만에 이번엔 지진.</t>
-  </si>
-  <si>
-    <t>새벽에 자다가 깨서 엄청 놀랐다. 처음 겪어본 지진인데, 생각보다 너무 무섭네</t>
-  </si>
-  <si>
-    <t>그나저나 정전이랑 단수부터 얼른 복구됐으면 좋겠다</t>
-  </si>
-  <si>
-    <t>제발 무사히 한국 가게 해주세요</t>
-  </si>
-  <si>
-    <t>내 휴가 참 재밌네. 정전되고 피난민이 따로 없음</t>
-  </si>
-  <si>
-    <t>태풍 난마돌로 인한 피해가 없길 바란다. 가뭄 해갈 원한다</t>
-  </si>
-  <si>
-    <t>우리동네 대설주의보 이게 무슨일이야. 그래도 눈덕에 출근 안했다.</t>
-  </si>
-  <si>
-    <t>진짜 일년에 눈 한 번 올까말까한 남부지방에 폭설이</t>
-  </si>
-  <si>
-    <t>지진도 이젠 지긋지긋하다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 가고 싶다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>집에 식량이 다 떨어졌다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마트가 정리 안 된지 꽤 됐다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부는 뭐 하는가?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리집 바닥 다 갈라지네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리 해야 하는데 상황이 더 심각해진다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국 라면 먹고 싶다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>집밥이 그리워요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>자연재해는 뜨끈한 국밥이지…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마 보고 싶다…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재앙이다.. 문재앙…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>한라산영화보고 죽을랬는데</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 못본….</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 똥을….!!!(스윽 바지를 내린다…)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>언제 기분이 좋아질까</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>츄르르ㅡㄼ(마지막 남은 면발을 먹는다)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이쯤 되면 죽는 게 더 나을 것 같다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>온몸이 아프다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 지내….</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>입원한 지 5일 째..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원밥이 맛이 없다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5년 전만 해도 살기 좋았는데…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아프니까 모든 게 다 서럽다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖에 나가기가 무섭다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구들이 보고싶다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛이 사라진 지 오래다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아프니까 청춘이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미친 저거 휩쓸리면 차도 날아갈 것 같음 여기 원래 물도 없는 건천인데 개무서워</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>금호강 가뭄이었는데 언제 바다 됐냐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>양화대교 막힌지 1시간 째.. 언제 집가냐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>자연휴양림에서 힐링하려다가 킬링당할 뻔 했네</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>산 속에 살고 있는 동물들은 어떻게 됐을까요…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘이 노하셨다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>붕괴한 백화점에서 살아남았다. 이건 기적이다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>방금 지금까지 겪은 일중 제일 아찔했다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진 나자마자 바로 건물 옥상으로 뛰었다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>실사판 재난영화가 이런 기분인가.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 왜 행복해질 수 없는 걸까…</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘 가서도 잘 지내…</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2909,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="A513" sqref="A513"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5034,7 +5186,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>550</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -5042,7 +5194,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -5050,7 +5202,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -5058,7 +5210,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -5066,7 +5218,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -5074,7 +5226,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -5082,7 +5234,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -5090,7 +5242,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -5098,7 +5250,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5106,7 +5258,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -5114,7 +5266,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -5122,7 +5274,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>4</v>
@@ -5130,7 +5282,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -5138,7 +5290,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5146,7 +5298,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5154,7 +5306,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5162,7 +5314,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5170,7 +5322,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>4</v>
@@ -5178,7 +5330,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>4</v>
@@ -5186,7 +5338,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -5194,7 +5346,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -5202,7 +5354,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>2</v>
@@ -5210,7 +5362,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5218,7 +5370,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -5226,7 +5378,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -5234,7 +5386,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5242,7 +5394,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5250,7 +5402,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -5258,7 +5410,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>3</v>
@@ -5266,7 +5418,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5274,7 +5426,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5282,7 +5434,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -5290,7 +5442,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5298,7 +5450,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -5306,7 +5458,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -5314,7 +5466,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5322,7 +5474,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5330,7 +5482,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5338,7 +5490,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -5346,7 +5498,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -5354,7 +5506,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -5362,7 +5514,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -5370,7 +5522,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5378,7 +5530,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -5386,7 +5538,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -5394,7 +5546,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5402,7 +5554,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -5410,7 +5562,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -5418,7 +5570,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5426,7 +5578,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -5434,7 +5586,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5442,7 +5594,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -5450,7 +5602,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -5458,7 +5610,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -5466,7 +5618,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -5474,7 +5626,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -5482,7 +5634,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -5490,7 +5642,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -5498,7 +5650,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -5506,7 +5658,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -5514,7 +5666,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -5522,7 +5674,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>3</v>
@@ -5530,7 +5682,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -5538,7 +5690,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>3</v>
@@ -5546,7 +5698,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -5554,7 +5706,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -5562,7 +5714,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -5570,7 +5722,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -5578,7 +5730,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -5586,7 +5738,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>2</v>
@@ -5594,7 +5746,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -5602,7 +5754,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -5610,7 +5762,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -5618,7 +5770,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5626,7 +5778,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5634,7 +5786,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>2</v>
@@ -5642,7 +5794,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -5650,7 +5802,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>2</v>
@@ -5658,7 +5810,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>2</v>
@@ -5666,7 +5818,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -5674,7 +5826,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -5682,7 +5834,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -5690,7 +5842,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -5698,7 +5850,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -5706,7 +5858,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -5714,7 +5866,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>2</v>
@@ -5722,7 +5874,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>4</v>
@@ -5730,7 +5882,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B352">
         <v>2</v>
@@ -5738,7 +5890,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -5746,7 +5898,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -5754,7 +5906,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -5762,7 +5914,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -5770,7 +5922,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -5778,7 +5930,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B358">
         <v>2</v>
@@ -5786,7 +5938,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -5794,7 +5946,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -5802,7 +5954,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -5810,7 +5962,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -5818,7 +5970,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -5826,7 +5978,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -5834,7 +5986,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -5842,7 +5994,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -5850,7 +6002,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -5858,7 +6010,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -5866,7 +6018,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -5874,7 +6026,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370">
         <v>2</v>
@@ -5882,7 +6034,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B371">
         <v>2</v>
@@ -5890,7 +6042,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -5898,7 +6050,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -5906,7 +6058,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -5914,7 +6066,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -5922,7 +6074,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -5930,7 +6082,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -5938,7 +6090,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -5946,7 +6098,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -5954,7 +6106,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -5962,7 +6114,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -5970,7 +6122,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -5978,7 +6130,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -5986,7 +6138,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384">
         <v>3</v>
@@ -5994,7 +6146,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B385">
         <v>4</v>
@@ -6002,7 +6154,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -6010,7 +6162,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -6018,7 +6170,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -6026,7 +6178,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -6034,7 +6186,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -6042,7 +6194,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -6050,7 +6202,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392">
         <v>5</v>
@@ -6058,7 +6210,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -6066,7 +6218,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394">
         <v>3</v>
@@ -6074,7 +6226,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B395">
         <v>4</v>
@@ -6082,7 +6234,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B396">
         <v>3</v>
@@ -6090,7 +6242,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6098,7 +6250,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -6106,7 +6258,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B399">
         <v>2</v>
@@ -6114,7 +6266,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B400">
         <v>3</v>
@@ -6122,7 +6274,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -6130,7 +6282,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B402">
         <v>5</v>
@@ -6138,7 +6290,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -6146,7 +6298,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B404">
         <v>2</v>
@@ -6154,7 +6306,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B405">
         <v>3</v>
@@ -6162,7 +6314,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B406">
         <v>3</v>
@@ -6170,7 +6322,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6178,7 +6330,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6186,7 +6338,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -6194,7 +6346,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6202,7 +6354,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B411">
         <v>3</v>
@@ -6210,7 +6362,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B412">
         <v>3</v>
@@ -6218,7 +6370,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -6226,7 +6378,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -6234,7 +6386,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -6242,7 +6394,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -6250,7 +6402,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -6258,7 +6410,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B418">
         <v>3</v>
@@ -6266,7 +6418,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -6274,7 +6426,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B420">
         <v>2</v>
@@ -6282,7 +6434,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -6290,7 +6442,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B422">
         <v>2</v>
@@ -6298,7 +6450,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -6306,7 +6458,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B424">
         <v>2</v>
@@ -6314,7 +6466,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B425">
         <v>2</v>
@@ -6322,7 +6474,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B426">
         <v>2</v>
@@ -6330,7 +6482,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -6338,7 +6490,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -6346,7 +6498,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -6354,7 +6506,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B430">
         <v>3</v>
@@ -6362,7 +6514,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B431">
         <v>3</v>
@@ -6370,7 +6522,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B432">
         <v>3</v>
@@ -6378,7 +6530,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B433">
         <v>4</v>
@@ -6386,7 +6538,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -6394,7 +6546,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B435">
         <v>3</v>
@@ -6402,7 +6554,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B436">
         <v>2</v>
@@ -6410,7 +6562,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -6418,7 +6570,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B438">
         <v>2</v>
@@ -6426,7 +6578,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -6434,7 +6586,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -6442,7 +6594,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -6450,7 +6602,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442">
         <v>2</v>
@@ -6458,7 +6610,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -6466,7 +6618,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B444">
         <v>2</v>
@@ -6474,7 +6626,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445">
         <v>3</v>
@@ -6482,7 +6634,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B446">
         <v>2</v>
@@ -6490,7 +6642,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B447">
         <v>3</v>
@@ -6498,7 +6650,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B448">
         <v>3</v>
@@ -6506,7 +6658,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B449">
         <v>3</v>
@@ -6514,7 +6666,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450">
         <v>2</v>
@@ -6522,7 +6674,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B451">
         <v>3</v>
@@ -6530,7 +6682,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B452">
         <v>2</v>
@@ -6538,7 +6690,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -6546,7 +6698,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B454">
         <v>3</v>
@@ -6554,7 +6706,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B455">
         <v>2</v>
@@ -6562,7 +6714,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -6570,7 +6722,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -6578,7 +6730,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B458">
         <v>3</v>
@@ -6586,7 +6738,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -6594,7 +6746,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -6602,7 +6754,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -6610,7 +6762,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B462">
         <v>3</v>
@@ -6618,7 +6770,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -6626,7 +6778,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -6634,7 +6786,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B465">
         <v>3</v>
@@ -6642,7 +6794,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B466">
         <v>3</v>
@@ -6650,7 +6802,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B467">
         <v>2</v>
@@ -6658,7 +6810,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B468">
         <v>2</v>
@@ -6666,7 +6818,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B469">
         <v>3</v>
@@ -6674,7 +6826,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B470">
         <v>2</v>
@@ -6682,7 +6834,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B471">
         <v>3</v>
@@ -6690,7 +6842,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B472">
         <v>3</v>
@@ -6698,7 +6850,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B473">
         <v>2</v>
@@ -6706,7 +6858,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -6714,7 +6866,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B475">
         <v>3</v>
@@ -6722,7 +6874,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -6730,7 +6882,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B477">
         <v>2</v>
@@ -6738,7 +6890,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B478">
         <v>3</v>
@@ -6746,7 +6898,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B479">
         <v>2</v>
@@ -6754,7 +6906,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B480">
         <v>2</v>
@@ -6762,7 +6914,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B481">
         <v>2</v>
@@ -6770,7 +6922,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -6778,7 +6930,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B483">
         <v>3</v>
@@ -6786,7 +6938,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -6794,7 +6946,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -6802,7 +6954,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -6810,7 +6962,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -6818,7 +6970,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -6826,7 +6978,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -6834,7 +6986,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -6842,7 +6994,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -6850,7 +7002,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492">
         <v>3</v>
@@ -6858,7 +7010,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B493">
         <v>2</v>
@@ -6866,7 +7018,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -6874,7 +7026,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -6882,7 +7034,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B496">
         <v>3</v>
@@ -6890,7 +7042,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B497">
         <v>4</v>
@@ -6898,7 +7050,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -6906,7 +7058,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B499">
         <v>3</v>
@@ -6914,7 +7066,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -6922,7 +7074,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B501">
         <v>5</v>
@@ -6930,7 +7082,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B502">
         <v>3</v>
@@ -6938,7 +7090,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -6946,7 +7098,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B504">
         <v>3</v>
@@ -6954,7 +7106,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B505">
         <v>4</v>
@@ -6962,7 +7114,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B506">
         <v>2</v>
@@ -6970,7 +7122,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B507">
         <v>4</v>
@@ -6978,7 +7130,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B508">
         <v>3</v>
@@ -6986,7 +7138,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -6994,7 +7146,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -7002,7 +7154,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -7010,9 +7162,313 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>512</v>
       </c>
-      <c r="B512">
+      <c r="B513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+      <c r="B550">
         <v>2</v>
       </c>
     </row>

--- a/AI/dataset.xlsx
+++ b/AI/dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\nature\Liature\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python workspace\Liature\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53615C70-E9CC-4367-B55F-649AEF4ACC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
   <si>
     <t>input</t>
   </si>
@@ -2088,14 +2089,508 @@
   </si>
   <si>
     <t>항공기 전부 결항이네요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안내도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리나고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흔들렸어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 포항 지진났는데 이제 아예 문자도 안올리네</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지진났는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뜨나요ㅠㅠ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한참동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그러다가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갑자기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>놀랐네요</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항 방금 지진 맞죠? 재난문자 아직도 안오네요</t>
+  </si>
+  <si>
+    <t>포항 방금 지진 발생ㅠㅠ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포항에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지진이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진도는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같아요</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,6 +2763,33 @@
       <color rgb="FF1C2022"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2696,7 +3218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2704,6 +3226,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3060,11 +3588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B550"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="B556" sqref="B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7472,6 +8000,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
